--- a/Pratybos naujas/slope_offset_median_mean_results.xlsx
+++ b/Pratybos naujas/slope_offset_median_mean_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donat\Pratybos naujas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96333B8-FED3-40D8-ABFC-688084B08657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B823147-E2EA-45EF-88C7-3ABF23692E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>file</t>
   </si>
@@ -128,6 +128,297 @@
   </si>
   <si>
     <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_238_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_301_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_302_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_303_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_304_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_305_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_306_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr1_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_307_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_308_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_309_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_310_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_311_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_312_ER2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_313_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_314_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_315_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_316_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_317_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_318_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_319_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_320_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_321_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_322_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_323_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_324_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_325_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_326_R2256_imp_ch_flt1-45_flt50_rejecetedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_327_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_328_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_329_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_330_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_331_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_332_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_333_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_334_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_335_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_336_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_337_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_10_ch256_flt1-45_flt50_rejectearte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_11_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_12_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_13_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\oc_14_r2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_15_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_16_R2_ch256_flt1-45_flt50_rejeectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_17_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_18_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_19_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_1_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_20_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_21_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_23_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_24_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_25_R2_ch256_flt1-45_flt50_rejecetdarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_26_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_27_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_28_R2_ch256_flt1-45_flt50_rejectedare_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_29_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_2_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_30_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_31_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_32_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_33_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_34_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_35_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_37_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_38_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_3_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_4_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_6_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_7_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_9_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_101_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_102_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_103_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_104_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_105_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_106_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_108_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_110_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_111_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_112_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_114_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_115_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_116_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_119_R2256_imp_ch_flt1-45_flt50_rejectedare_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_121_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_123_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_124_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_125_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_126_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_127_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_128_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_129_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_130_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_131_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_132_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+  </si>
+  <si>
+    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_133_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
   </si>
 </sst>
 </file>
@@ -490,19 +781,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.1796875" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="71.7265625" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1049,6 +1338,1655 @@
         <v>0.90874074969619456</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>1.02984147448218</v>
+      </c>
+      <c r="C33">
+        <v>0.99666719977257123</v>
+      </c>
+      <c r="D33">
+        <v>0.1127971605865741</v>
+      </c>
+      <c r="E33">
+        <v>-1.098486419445434E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>1.3041895169326081</v>
+      </c>
+      <c r="C34">
+        <v>1.289575997596814</v>
+      </c>
+      <c r="D34">
+        <v>0.78538572704242515</v>
+      </c>
+      <c r="E34">
+        <v>0.78471689126206234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0.86278248534706425</v>
+      </c>
+      <c r="C35">
+        <v>0.88192221367764712</v>
+      </c>
+      <c r="D35">
+        <v>9.2926009909010121E-2</v>
+      </c>
+      <c r="E35">
+        <v>5.2895010030144247E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>0.67866264440152979</v>
+      </c>
+      <c r="C36">
+        <v>0.71487986076735621</v>
+      </c>
+      <c r="D36">
+        <v>0.22371882930384199</v>
+      </c>
+      <c r="E36">
+        <v>0.2048229029960161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.81703672955311157</v>
+      </c>
+      <c r="C37">
+        <v>0.80790690031730861</v>
+      </c>
+      <c r="D37">
+        <v>-0.32220191977117651</v>
+      </c>
+      <c r="E37">
+        <v>-0.33351316827465211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>1.3126006320946759</v>
+      </c>
+      <c r="C38">
+        <v>1.2590190500986991</v>
+      </c>
+      <c r="D38">
+        <v>1.4128699364697359</v>
+      </c>
+      <c r="E38">
+        <v>1.371713883559829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0.86971318691554578</v>
+      </c>
+      <c r="C39">
+        <v>0.87690904975031125</v>
+      </c>
+      <c r="D39">
+        <v>5.5780290931157397E-2</v>
+      </c>
+      <c r="E39">
+        <v>5.5043193906054992E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0.6348504332496987</v>
+      </c>
+      <c r="C40">
+        <v>0.64763851275955486</v>
+      </c>
+      <c r="D40">
+        <v>-0.33236942262821639</v>
+      </c>
+      <c r="E40">
+        <v>-0.29112011504653651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>1.070788857484402</v>
+      </c>
+      <c r="C41">
+        <v>1.036888958075679</v>
+      </c>
+      <c r="D41">
+        <v>1.1596691199240019</v>
+      </c>
+      <c r="E41">
+        <v>1.0881700743366209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>1.1330082192082569</v>
+      </c>
+      <c r="C42">
+        <v>1.155416108710605</v>
+      </c>
+      <c r="D42">
+        <v>0.8366844816001362</v>
+      </c>
+      <c r="E42">
+        <v>0.84364398765861714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>1.0726009956476359</v>
+      </c>
+      <c r="C43">
+        <v>1.0597875799812759</v>
+      </c>
+      <c r="D43">
+        <v>0.56678872819554527</v>
+      </c>
+      <c r="E43">
+        <v>0.50756401014220365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0.99152833324272904</v>
+      </c>
+      <c r="C44">
+        <v>0.97240008697891278</v>
+      </c>
+      <c r="D44">
+        <v>-6.6360768774165718E-2</v>
+      </c>
+      <c r="E44">
+        <v>-9.1006716643242752E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>1.079454705893433</v>
+      </c>
+      <c r="C45">
+        <v>1.11665115357566</v>
+      </c>
+      <c r="D45">
+        <v>0.67571458916749039</v>
+      </c>
+      <c r="E45">
+        <v>0.67371386408794021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>1.2251202400135941</v>
+      </c>
+      <c r="C46">
+        <v>1.2669013042267541</v>
+      </c>
+      <c r="D46">
+        <v>1.14368051570924</v>
+      </c>
+      <c r="E46">
+        <v>1.1221710139452461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>1.3602084637196501</v>
+      </c>
+      <c r="C47">
+        <v>1.366196904584728</v>
+      </c>
+      <c r="D47">
+        <v>0.79636327765993853</v>
+      </c>
+      <c r="E47">
+        <v>0.74466250681755342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>1.0253223134373071</v>
+      </c>
+      <c r="C48">
+        <v>1.043322105682142</v>
+      </c>
+      <c r="D48">
+        <v>0.19839524782494661</v>
+      </c>
+      <c r="E48">
+        <v>0.1968578129419099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>1.4315772673225511</v>
+      </c>
+      <c r="C49">
+        <v>1.4164414338160529</v>
+      </c>
+      <c r="D49">
+        <v>1.2298771237954631</v>
+      </c>
+      <c r="E49">
+        <v>1.176994213615149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>0.94257286630403603</v>
+      </c>
+      <c r="C50">
+        <v>0.90383303699211126</v>
+      </c>
+      <c r="D50">
+        <v>0.25961313225248922</v>
+      </c>
+      <c r="E50">
+        <v>0.23218348404023209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>1.4973718194271031</v>
+      </c>
+      <c r="C51">
+        <v>1.4300987485452581</v>
+      </c>
+      <c r="D51">
+        <v>1.583534785654499</v>
+      </c>
+      <c r="E51">
+        <v>1.489340458970162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>1.325627300640942</v>
+      </c>
+      <c r="C52">
+        <v>1.3466118215694109</v>
+      </c>
+      <c r="D52">
+        <v>1.2651552525706471</v>
+      </c>
+      <c r="E52">
+        <v>1.2602330826104491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>1.4511276570474021</v>
+      </c>
+      <c r="C53">
+        <v>1.413688588365422</v>
+      </c>
+      <c r="D53">
+        <v>0.86013792492074892</v>
+      </c>
+      <c r="E53">
+        <v>0.80882110446055666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>1.073679053987219</v>
+      </c>
+      <c r="C54">
+        <v>1.101829010376624</v>
+      </c>
+      <c r="D54">
+        <v>0.43012465756648588</v>
+      </c>
+      <c r="E54">
+        <v>0.51093463893606528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>1.2576338123088611</v>
+      </c>
+      <c r="C55">
+        <v>1.2636574227408419</v>
+      </c>
+      <c r="D55">
+        <v>0.46999650326561571</v>
+      </c>
+      <c r="E55">
+        <v>0.41160451336632792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>0.98970785075991219</v>
+      </c>
+      <c r="C56">
+        <v>0.98373181081062222</v>
+      </c>
+      <c r="D56">
+        <v>0.1025985785006809</v>
+      </c>
+      <c r="E56">
+        <v>-4.9780480312755768E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>0.89819769320323417</v>
+      </c>
+      <c r="C57">
+        <v>0.87009686290030741</v>
+      </c>
+      <c r="D57">
+        <v>-0.36330117969609038</v>
+      </c>
+      <c r="E57">
+        <v>-0.34353276242314301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>0.62917558501469584</v>
+      </c>
+      <c r="C58">
+        <v>0.64849227481110827</v>
+      </c>
+      <c r="D58">
+        <v>-0.88117586776488255</v>
+      </c>
+      <c r="E58">
+        <v>-0.72174334197554113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>1.3189018925310341</v>
+      </c>
+      <c r="C59">
+        <v>1.2891707484871431</v>
+      </c>
+      <c r="D59">
+        <v>0.62177698958057692</v>
+      </c>
+      <c r="E59">
+        <v>0.58380388609374023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>1.187372427513842</v>
+      </c>
+      <c r="C60">
+        <v>1.1897682795282689</v>
+      </c>
+      <c r="D60">
+        <v>0.50013667782379989</v>
+      </c>
+      <c r="E60">
+        <v>0.46110213814294099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>1.0372356777752949</v>
+      </c>
+      <c r="C61">
+        <v>0.98969840925154584</v>
+      </c>
+      <c r="D61">
+        <v>0.70258231747733735</v>
+      </c>
+      <c r="E61">
+        <v>0.6126013576292525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>1.1530342378027061</v>
+      </c>
+      <c r="C62">
+        <v>1.163476073902544</v>
+      </c>
+      <c r="D62">
+        <v>0.40653551446561509</v>
+      </c>
+      <c r="E62">
+        <v>0.39947728920146042</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>0.89473667418258995</v>
+      </c>
+      <c r="C63">
+        <v>0.83024172129746698</v>
+      </c>
+      <c r="D63">
+        <v>0.44616483674286711</v>
+      </c>
+      <c r="E63">
+        <v>0.4829249452538773</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>1.071594241489084</v>
+      </c>
+      <c r="C64">
+        <v>1.09248494747786</v>
+      </c>
+      <c r="D64">
+        <v>0.69092133888366503</v>
+      </c>
+      <c r="E64">
+        <v>0.66522550563975724</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>1.067855836543361</v>
+      </c>
+      <c r="C65">
+        <v>1.05882763044265</v>
+      </c>
+      <c r="D65">
+        <v>0.57762099377468257</v>
+      </c>
+      <c r="E65">
+        <v>0.58400715462219988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>1.405235559699763</v>
+      </c>
+      <c r="C66">
+        <v>1.4098827616917811</v>
+      </c>
+      <c r="D66">
+        <v>1.5546413749565979</v>
+      </c>
+      <c r="E66">
+        <v>1.4811049649396939</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>1.459068462074764</v>
+      </c>
+      <c r="C67">
+        <v>1.440906250893319</v>
+      </c>
+      <c r="D67">
+        <v>1.020892457920529</v>
+      </c>
+      <c r="E67">
+        <v>1.035606724722224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>0.76124714759921408</v>
+      </c>
+      <c r="C68">
+        <v>0.77246042381977176</v>
+      </c>
+      <c r="D68">
+        <v>0.41270793368393111</v>
+      </c>
+      <c r="E68">
+        <v>0.36813689914918252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>1.184934592744644</v>
+      </c>
+      <c r="C69">
+        <v>1.1607001702721711</v>
+      </c>
+      <c r="D69">
+        <v>0.67769449096507839</v>
+      </c>
+      <c r="E69">
+        <v>0.64492574745625642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>1.3923792673262441</v>
+      </c>
+      <c r="C70">
+        <v>1.3632963693423941</v>
+      </c>
+      <c r="D70">
+        <v>1.3522407904294851</v>
+      </c>
+      <c r="E70">
+        <v>1.3273737218136969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>1.08804858461625</v>
+      </c>
+      <c r="C71">
+        <v>1.0738313517241209</v>
+      </c>
+      <c r="D71">
+        <v>0.63560866437515395</v>
+      </c>
+      <c r="E71">
+        <v>0.61732773820241871</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>1.3898148420693901</v>
+      </c>
+      <c r="C72">
+        <v>1.350135400257112</v>
+      </c>
+      <c r="D72">
+        <v>1.3263256764174829</v>
+      </c>
+      <c r="E72">
+        <v>1.322932458279624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>1.515438916528826</v>
+      </c>
+      <c r="C73">
+        <v>1.463871921087543</v>
+      </c>
+      <c r="D73">
+        <v>1.1340867108047279</v>
+      </c>
+      <c r="E73">
+        <v>1.1030814300539911</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>0.84433202821416231</v>
+      </c>
+      <c r="C74">
+        <v>0.85647809975068201</v>
+      </c>
+      <c r="D74">
+        <v>0.41084900812645031</v>
+      </c>
+      <c r="E74">
+        <v>0.3579916082695363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>1.25467863147</v>
+      </c>
+      <c r="C75">
+        <v>1.242163528236965</v>
+      </c>
+      <c r="D75">
+        <v>0.81298266420468779</v>
+      </c>
+      <c r="E75">
+        <v>0.81697438787004084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>1.086881371596474</v>
+      </c>
+      <c r="C76">
+        <v>1.0559357907075719</v>
+      </c>
+      <c r="D76">
+        <v>0.8597249741773888</v>
+      </c>
+      <c r="E76">
+        <v>0.77781719830216101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>1.391681068899675</v>
+      </c>
+      <c r="C77">
+        <v>1.364640530463445</v>
+      </c>
+      <c r="D77">
+        <v>1.0516975903703689</v>
+      </c>
+      <c r="E77">
+        <v>1.0582521608079929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>0.72798723227470985</v>
+      </c>
+      <c r="C78">
+        <v>0.69153360883421044</v>
+      </c>
+      <c r="D78">
+        <v>-1.0191250013629281</v>
+      </c>
+      <c r="E78">
+        <v>-0.9706988459933501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>1.372206320824535</v>
+      </c>
+      <c r="C79">
+        <v>1.3586792864758921</v>
+      </c>
+      <c r="D79">
+        <v>1.057431774602412</v>
+      </c>
+      <c r="E79">
+        <v>0.99685993849628529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>1.025862898733324</v>
+      </c>
+      <c r="C80">
+        <v>1.009418482688506</v>
+      </c>
+      <c r="D80">
+        <v>0.9112744861300015</v>
+      </c>
+      <c r="E80">
+        <v>0.84266227580766029</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>1.1876145485352121</v>
+      </c>
+      <c r="C81">
+        <v>1.2008286615036461</v>
+      </c>
+      <c r="D81">
+        <v>0.57611618875067472</v>
+      </c>
+      <c r="E81">
+        <v>0.61828922528218255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>1.050665851639186</v>
+      </c>
+      <c r="C82">
+        <v>1.037740348025098</v>
+      </c>
+      <c r="D82">
+        <v>0.77696490443896749</v>
+      </c>
+      <c r="E82">
+        <v>0.79505649974116654</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>1.2718993856257279</v>
+      </c>
+      <c r="C83">
+        <v>1.2451405839838721</v>
+      </c>
+      <c r="D83">
+        <v>1.102801475553318</v>
+      </c>
+      <c r="E83">
+        <v>1.0233096255173879</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>1.330213623056349</v>
+      </c>
+      <c r="C84">
+        <v>1.3429591443880939</v>
+      </c>
+      <c r="D84">
+        <v>0.53130128062828486</v>
+      </c>
+      <c r="E84">
+        <v>0.58065249687983045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>0.94630788023977819</v>
+      </c>
+      <c r="C85">
+        <v>0.95577702992739999</v>
+      </c>
+      <c r="D85">
+        <v>0.58604849909935286</v>
+      </c>
+      <c r="E85">
+        <v>0.59541426349854454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>0.69831385808310187</v>
+      </c>
+      <c r="C86">
+        <v>0.74000989427022357</v>
+      </c>
+      <c r="D86">
+        <v>0.11730830049599671</v>
+      </c>
+      <c r="E86">
+        <v>0.17135628141534309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>1.1043715393389011</v>
+      </c>
+      <c r="C87">
+        <v>1.137607310917004</v>
+      </c>
+      <c r="D87">
+        <v>0.89504184039639023</v>
+      </c>
+      <c r="E87">
+        <v>0.88108799561017792</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>1.3217461694807069</v>
+      </c>
+      <c r="C88">
+        <v>1.3048568997476631</v>
+      </c>
+      <c r="D88">
+        <v>1.2333493004744089</v>
+      </c>
+      <c r="E88">
+        <v>1.148195684970317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>1.2279671315762519</v>
+      </c>
+      <c r="C89">
+        <v>1.2312330612274771</v>
+      </c>
+      <c r="D89">
+        <v>0.59993833283840614</v>
+      </c>
+      <c r="E89">
+        <v>0.55119345916819307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>1.061972756447088</v>
+      </c>
+      <c r="C90">
+        <v>1.060832604728275</v>
+      </c>
+      <c r="D90">
+        <v>0.96321654067289897</v>
+      </c>
+      <c r="E90">
+        <v>0.91014409847992095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>1.501290656260567</v>
+      </c>
+      <c r="C91">
+        <v>1.5150496045814279</v>
+      </c>
+      <c r="D91">
+        <v>0.80963355711372853</v>
+      </c>
+      <c r="E91">
+        <v>0.75248891040613664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>1.153157653757201</v>
+      </c>
+      <c r="C92">
+        <v>1.114990258844879</v>
+      </c>
+      <c r="D92">
+        <v>0.97558804296751211</v>
+      </c>
+      <c r="E92">
+        <v>0.91744738632708767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>0.76132259959848358</v>
+      </c>
+      <c r="C93">
+        <v>0.74012972294114121</v>
+      </c>
+      <c r="D93">
+        <v>0.1836946577563037</v>
+      </c>
+      <c r="E93">
+        <v>0.16868597569303101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>1.2182053826779129</v>
+      </c>
+      <c r="C94">
+        <v>1.2186662670237169</v>
+      </c>
+      <c r="D94">
+        <v>1.3460644821636569</v>
+      </c>
+      <c r="E94">
+        <v>1.3737208484347521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>1.222917297764109</v>
+      </c>
+      <c r="C95">
+        <v>1.2235574422261071</v>
+      </c>
+      <c r="D95">
+        <v>0.82229686978364702</v>
+      </c>
+      <c r="E95">
+        <v>0.8200834822275257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>1.2371389375249779</v>
+      </c>
+      <c r="C96">
+        <v>1.233720969240742</v>
+      </c>
+      <c r="D96">
+        <v>0.91781391048853922</v>
+      </c>
+      <c r="E96">
+        <v>0.9274356183877539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>1.36697930208396</v>
+      </c>
+      <c r="C97">
+        <v>1.331074803140593</v>
+      </c>
+      <c r="D97">
+        <v>1.218068969219043</v>
+      </c>
+      <c r="E97">
+        <v>1.1924384954093299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>1.278887514927264</v>
+      </c>
+      <c r="C98">
+        <v>1.2475196781234761</v>
+      </c>
+      <c r="D98">
+        <v>1.002773223256199</v>
+      </c>
+      <c r="E98">
+        <v>0.96867354138740747</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>1.239431115412877</v>
+      </c>
+      <c r="C99">
+        <v>1.229291277659551</v>
+      </c>
+      <c r="D99">
+        <v>0.78595335594833682</v>
+      </c>
+      <c r="E99">
+        <v>0.64468244216088977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>1.15104873155696</v>
+      </c>
+      <c r="C100">
+        <v>1.137242633717944</v>
+      </c>
+      <c r="D100">
+        <v>1.1887414520030259</v>
+      </c>
+      <c r="E100">
+        <v>1.2002866360874169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>1.0555922005960729</v>
+      </c>
+      <c r="C101">
+        <v>1.09910066336643</v>
+      </c>
+      <c r="D101">
+        <v>0.24690355597839039</v>
+      </c>
+      <c r="E101">
+        <v>0.28172824210220659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>1.142348157399419</v>
+      </c>
+      <c r="C102">
+        <v>1.1209083625712599</v>
+      </c>
+      <c r="D102">
+        <v>1.0241110836066381</v>
+      </c>
+      <c r="E102">
+        <v>0.98769372058193128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>1.4021027935360919</v>
+      </c>
+      <c r="C103">
+        <v>1.406754374313834</v>
+      </c>
+      <c r="D103">
+        <v>0.8061709737184326</v>
+      </c>
+      <c r="E103">
+        <v>0.76670401650946252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>1.3261911706117391</v>
+      </c>
+      <c r="C104">
+        <v>1.3024329053469219</v>
+      </c>
+      <c r="D104">
+        <v>0.78607431925101023</v>
+      </c>
+      <c r="E104">
+        <v>0.75856512441130486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>1.730147732293164</v>
+      </c>
+      <c r="C105">
+        <v>1.702972215117363</v>
+      </c>
+      <c r="D105">
+        <v>1.938838417148931</v>
+      </c>
+      <c r="E105">
+        <v>1.890661110386302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>1.075159867526065</v>
+      </c>
+      <c r="C106">
+        <v>1.032662490158925</v>
+      </c>
+      <c r="D106">
+        <v>0.58499683018192583</v>
+      </c>
+      <c r="E106">
+        <v>0.49480297275811119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>1.473484947830056</v>
+      </c>
+      <c r="C107">
+        <v>1.452749629926348</v>
+      </c>
+      <c r="D107">
+        <v>0.96397960596130627</v>
+      </c>
+      <c r="E107">
+        <v>0.92639065649756769</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>0.82555727497734255</v>
+      </c>
+      <c r="C108">
+        <v>0.81503159546723503</v>
+      </c>
+      <c r="D108">
+        <v>0.24970813497298139</v>
+      </c>
+      <c r="E108">
+        <v>0.27141121630435472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>1.177169382742181</v>
+      </c>
+      <c r="C109">
+        <v>1.1300818596784761</v>
+      </c>
+      <c r="D109">
+        <v>1.135495717908654</v>
+      </c>
+      <c r="E109">
+        <v>1.081190948681654</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>1.105914748613616</v>
+      </c>
+      <c r="C110">
+        <v>1.1360850755510929</v>
+      </c>
+      <c r="D110">
+        <v>0.97882198862042735</v>
+      </c>
+      <c r="E110">
+        <v>0.93127954954174097</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>1.216127633067237</v>
+      </c>
+      <c r="C111">
+        <v>1.241562845763581</v>
+      </c>
+      <c r="D111">
+        <v>0.91825996634747498</v>
+      </c>
+      <c r="E111">
+        <v>0.86173134827853015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>1.1202717159589231</v>
+      </c>
+      <c r="C112">
+        <v>1.136056998532365</v>
+      </c>
+      <c r="D112">
+        <v>1.0473646747604159</v>
+      </c>
+      <c r="E112">
+        <v>1.1435646776415269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>0.90522798425645568</v>
+      </c>
+      <c r="C113">
+        <v>0.89004279449708545</v>
+      </c>
+      <c r="D113">
+        <v>-0.26386956359497832</v>
+      </c>
+      <c r="E113">
+        <v>-0.37157510905194913</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>1.2423330392993399</v>
+      </c>
+      <c r="C114">
+        <v>1.218764349442327</v>
+      </c>
+      <c r="D114">
+        <v>1.082295518422959</v>
+      </c>
+      <c r="E114">
+        <v>1.0404429317514541</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>1.4146851790064709</v>
+      </c>
+      <c r="C115">
+        <v>1.4048418119889949</v>
+      </c>
+      <c r="D115">
+        <v>1.213575277519076</v>
+      </c>
+      <c r="E115">
+        <v>1.1614185391082441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>0.77759045850367448</v>
+      </c>
+      <c r="C116">
+        <v>0.79948588640432894</v>
+      </c>
+      <c r="D116">
+        <v>0.529304325225463</v>
+      </c>
+      <c r="E116">
+        <v>0.54781272356307431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>1.6303072742238891</v>
+      </c>
+      <c r="C117">
+        <v>1.5966553059705391</v>
+      </c>
+      <c r="D117">
+        <v>1.605719429739068</v>
+      </c>
+      <c r="E117">
+        <v>1.5469923862125881</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>0.76609103197945905</v>
+      </c>
+      <c r="C118">
+        <v>0.7527126379334389</v>
+      </c>
+      <c r="D118">
+        <v>0.83533082583606377</v>
+      </c>
+      <c r="E118">
+        <v>0.81688122441060185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>0.84112411195021153</v>
+      </c>
+      <c r="C119">
+        <v>0.82448503112661176</v>
+      </c>
+      <c r="D119">
+        <v>-0.30078480855982292</v>
+      </c>
+      <c r="E119">
+        <v>-0.28619033705725172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>0.98744703797014055</v>
+      </c>
+      <c r="C120">
+        <v>0.99994168610402878</v>
+      </c>
+      <c r="D120">
+        <v>-0.22502093818062741</v>
+      </c>
+      <c r="E120">
+        <v>-0.23589804277006349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>1.20700794472883</v>
+      </c>
+      <c r="C121">
+        <v>1.1703690792218031</v>
+      </c>
+      <c r="D121">
+        <v>0.67409177601436077</v>
+      </c>
+      <c r="E121">
+        <v>0.64563497702824457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>1.371261769758735</v>
+      </c>
+      <c r="C122">
+        <v>1.3633729267373671</v>
+      </c>
+      <c r="D122">
+        <v>1.0645564144822359</v>
+      </c>
+      <c r="E122">
+        <v>0.9137843707592026</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>1.3567079757409859</v>
+      </c>
+      <c r="C123">
+        <v>1.3329992212219961</v>
+      </c>
+      <c r="D123">
+        <v>0.95134037647728853</v>
+      </c>
+      <c r="E123">
+        <v>0.95016625403503674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>0.80312588861703016</v>
+      </c>
+      <c r="C124">
+        <v>0.77437770518273596</v>
+      </c>
+      <c r="D124">
+        <v>0.51593712608909281</v>
+      </c>
+      <c r="E124">
+        <v>0.50163744028264134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>0.46377427175837987</v>
+      </c>
+      <c r="C125">
+        <v>0.48528168981131031</v>
+      </c>
+      <c r="D125">
+        <v>-0.15736727538415199</v>
+      </c>
+      <c r="E125">
+        <v>-5.1497195168083168E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>0.96247447915078599</v>
+      </c>
+      <c r="C126">
+        <v>0.9022652778164163</v>
+      </c>
+      <c r="D126">
+        <v>0.79450989157150842</v>
+      </c>
+      <c r="E126">
+        <v>0.79757009306521431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>1.195021141627302</v>
+      </c>
+      <c r="C127">
+        <v>1.1633257032081961</v>
+      </c>
+      <c r="D127">
+        <v>0.63514021046163793</v>
+      </c>
+      <c r="E127">
+        <v>0.62770708898862604</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>1.362871143505451</v>
+      </c>
+      <c r="C128">
+        <v>1.3697113232053959</v>
+      </c>
+      <c r="D128">
+        <v>1.0727060767636361</v>
+      </c>
+      <c r="E128">
+        <v>1.0677059652583889</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>1.5565530177110249</v>
+      </c>
+      <c r="C129">
+        <v>1.5488033142576281</v>
+      </c>
+      <c r="D129">
+        <v>1.222245066313792</v>
+      </c>
+      <c r="E129">
+        <v>1.201906040037809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Pratybos naujas/slope_offset_median_mean_results.xlsx
+++ b/Pratybos naujas/slope_offset_median_mean_results.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donat\Pratybos naujas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B823147-E2EA-45EF-88C7-3ABF23692E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BEEA0-C5CA-402F-9257-5D701B75E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="UID" sheetId="5" r:id="rId2"/>
+    <sheet name="OC" sheetId="4" r:id="rId3"/>
+    <sheet name="NCG" sheetId="3" r:id="rId4"/>
+    <sheet name="NCF" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="133">
   <si>
     <t>file</t>
   </si>
@@ -37,388 +41,388 @@
     <t>mean_offset</t>
   </si>
   <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_201_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_202_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_204_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_205_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_206_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_207_R2256_imp_ch_flt1-45_flt50__rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_209_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_210_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_211_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_212_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_213_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_215_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_217_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_220_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_221_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_222_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_223_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_224_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_225_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_226_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_227_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_228_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_229_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_230_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_231_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_232_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_233_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_234_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_235_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_236_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCF_238_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_301_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_302_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_303_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_304_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_305_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_306_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr1_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_307_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_308_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_309_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_310_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_311_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_312_ER2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_313_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_314_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_315_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_316_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_317_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_318_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_319_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_320_R2256_imp_ch_flt1-45_flt50_rejectedarte_chr_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_321_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_322_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_323_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_324_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_325_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_326_R2256_imp_ch_flt1-45_flt50_rejecetedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_327_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_328_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_329_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_330_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_331_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_332_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_333_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_334_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_335_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_336_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\NCG_337_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_10_ch256_flt1-45_flt50_rejectearte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_11_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_12_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_13_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\oc_14_r2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_15_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_16_R2_ch256_flt1-45_flt50_rejeectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_17_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_18_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_19_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_1_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_20_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_21_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_23_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_24_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_25_R2_ch256_flt1-45_flt50_rejecetdarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_26_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_27_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_28_R2_ch256_flt1-45_flt50_rejectedare_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_29_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_2_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_30_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_31_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_32_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_33_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_34_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_35_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_37_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_38_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_3_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_4_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_6_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_7_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\OC_9_R2_ch256_flt1-45_flt50_rejectedarte_rch_imp_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_101_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_102_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_103_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_104_R2256_imp_ch_flt1-45_flt50_rejectedarte_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_105_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_106_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_108_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_110_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_111_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_112_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_114_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_115_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_116_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_119_R2256_imp_ch_flt1-45_flt50_rejectedare_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_121_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_123_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_124_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_125_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_126_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_127_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_128_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_129_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_130_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_131_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_132_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
-  </si>
-  <si>
-    <t>E:\Analysis\Analysis\FOOOF MAT FILES\UID_133_R2256_imp_ch_flt1-45_flt50_rejectedarte_rch_ICA_prep_rf_int_parameters.mat</t>
+    <t>NCF201</t>
+  </si>
+  <si>
+    <t>NCF202</t>
+  </si>
+  <si>
+    <t>NCF203</t>
+  </si>
+  <si>
+    <t>NCF205</t>
+  </si>
+  <si>
+    <t>NCF206</t>
+  </si>
+  <si>
+    <t>NCF207</t>
+  </si>
+  <si>
+    <t>NCF209</t>
+  </si>
+  <si>
+    <t>NCF210</t>
+  </si>
+  <si>
+    <t>NCF211</t>
+  </si>
+  <si>
+    <t>NCF212</t>
+  </si>
+  <si>
+    <t>NCF213</t>
+  </si>
+  <si>
+    <t>NCF215</t>
+  </si>
+  <si>
+    <t>NCF217</t>
+  </si>
+  <si>
+    <t>NCF220</t>
+  </si>
+  <si>
+    <t>NCF221</t>
+  </si>
+  <si>
+    <t>NCF222</t>
+  </si>
+  <si>
+    <t>NCF223</t>
+  </si>
+  <si>
+    <t>NCF224</t>
+  </si>
+  <si>
+    <t>NCF225</t>
+  </si>
+  <si>
+    <t>NCF226</t>
+  </si>
+  <si>
+    <t>NCF227</t>
+  </si>
+  <si>
+    <t>NCF228</t>
+  </si>
+  <si>
+    <t>NCF229</t>
+  </si>
+  <si>
+    <t>NCF230</t>
+  </si>
+  <si>
+    <t>NCF231</t>
+  </si>
+  <si>
+    <t>NCF232</t>
+  </si>
+  <si>
+    <t>NCF233</t>
+  </si>
+  <si>
+    <t>NCF234</t>
+  </si>
+  <si>
+    <t>NCF235</t>
+  </si>
+  <si>
+    <t>NCF236</t>
+  </si>
+  <si>
+    <t>NCF238</t>
+  </si>
+  <si>
+    <t>NCG301</t>
+  </si>
+  <si>
+    <t>NCG302</t>
+  </si>
+  <si>
+    <t>NCG303</t>
+  </si>
+  <si>
+    <t>NCG304</t>
+  </si>
+  <si>
+    <t>NCG305</t>
+  </si>
+  <si>
+    <t>NCG306</t>
+  </si>
+  <si>
+    <t>NCG307</t>
+  </si>
+  <si>
+    <t>NCG308</t>
+  </si>
+  <si>
+    <t>NCG309</t>
+  </si>
+  <si>
+    <t>NCG310</t>
+  </si>
+  <si>
+    <t>NCG311</t>
+  </si>
+  <si>
+    <t>NCG312</t>
+  </si>
+  <si>
+    <t>NCG313</t>
+  </si>
+  <si>
+    <t>NCG314</t>
+  </si>
+  <si>
+    <t>NCG315</t>
+  </si>
+  <si>
+    <t>NCG316</t>
+  </si>
+  <si>
+    <t>NCG317</t>
+  </si>
+  <si>
+    <t>NCG318</t>
+  </si>
+  <si>
+    <t>NCG319</t>
+  </si>
+  <si>
+    <t>NCG320</t>
+  </si>
+  <si>
+    <t>NCG321</t>
+  </si>
+  <si>
+    <t>NCG322</t>
+  </si>
+  <si>
+    <t>NCG323</t>
+  </si>
+  <si>
+    <t>NCG324</t>
+  </si>
+  <si>
+    <t>NCG325</t>
+  </si>
+  <si>
+    <t>NCG326</t>
+  </si>
+  <si>
+    <t>NCG327</t>
+  </si>
+  <si>
+    <t>NCG328</t>
+  </si>
+  <si>
+    <t>NCG329</t>
+  </si>
+  <si>
+    <t>NCG330</t>
+  </si>
+  <si>
+    <t>NCG331</t>
+  </si>
+  <si>
+    <t>NCG332</t>
+  </si>
+  <si>
+    <t>NCG333</t>
+  </si>
+  <si>
+    <t>NCG334</t>
+  </si>
+  <si>
+    <t>NCG335</t>
+  </si>
+  <si>
+    <t>NCG336</t>
+  </si>
+  <si>
+    <t>NCG337</t>
+  </si>
+  <si>
+    <t>OC10</t>
+  </si>
+  <si>
+    <t>OC11</t>
+  </si>
+  <si>
+    <t>OC12</t>
+  </si>
+  <si>
+    <t>OC13</t>
+  </si>
+  <si>
+    <t>OC14</t>
+  </si>
+  <si>
+    <t>OC15</t>
+  </si>
+  <si>
+    <t>OC16</t>
+  </si>
+  <si>
+    <t>OC17</t>
+  </si>
+  <si>
+    <t>OC18</t>
+  </si>
+  <si>
+    <t>OC19</t>
+  </si>
+  <si>
+    <t>OC1</t>
+  </si>
+  <si>
+    <t>OC20</t>
+  </si>
+  <si>
+    <t>OC21</t>
+  </si>
+  <si>
+    <t>OC23</t>
+  </si>
+  <si>
+    <t>OC24</t>
+  </si>
+  <si>
+    <t>OC25</t>
+  </si>
+  <si>
+    <t>OC26</t>
+  </si>
+  <si>
+    <t>OC27</t>
+  </si>
+  <si>
+    <t>OC28</t>
+  </si>
+  <si>
+    <t>OC29</t>
+  </si>
+  <si>
+    <t>OC2</t>
+  </si>
+  <si>
+    <t>OC30</t>
+  </si>
+  <si>
+    <t>OC31</t>
+  </si>
+  <si>
+    <t>OC32</t>
+  </si>
+  <si>
+    <t>OC33</t>
+  </si>
+  <si>
+    <t>OC34</t>
+  </si>
+  <si>
+    <t>OC35</t>
+  </si>
+  <si>
+    <t>OC37</t>
+  </si>
+  <si>
+    <t>OC38</t>
+  </si>
+  <si>
+    <t>OC3</t>
+  </si>
+  <si>
+    <t>OC4</t>
+  </si>
+  <si>
+    <t>OC6</t>
+  </si>
+  <si>
+    <t>OC7</t>
+  </si>
+  <si>
+    <t>OC9</t>
+  </si>
+  <si>
+    <t>UID101</t>
+  </si>
+  <si>
+    <t>UID102</t>
+  </si>
+  <si>
+    <t>UID103</t>
+  </si>
+  <si>
+    <t>UID104</t>
+  </si>
+  <si>
+    <t>UID105</t>
+  </si>
+  <si>
+    <t>UID106</t>
+  </si>
+  <si>
+    <t>UID108</t>
+  </si>
+  <si>
+    <t>UID110</t>
+  </si>
+  <si>
+    <t>UID111</t>
+  </si>
+  <si>
+    <t>UID112</t>
+  </si>
+  <si>
+    <t>UID114</t>
+  </si>
+  <si>
+    <t>UID115</t>
+  </si>
+  <si>
+    <t>UID116</t>
+  </si>
+  <si>
+    <t>UID119</t>
+  </si>
+  <si>
+    <t>UID121</t>
+  </si>
+  <si>
+    <t>UID123</t>
+  </si>
+  <si>
+    <t>UID124</t>
+  </si>
+  <si>
+    <t>UID125</t>
+  </si>
+  <si>
+    <t>UID126</t>
+  </si>
+  <si>
+    <t>UID127</t>
+  </si>
+  <si>
+    <t>UID128</t>
+  </si>
+  <si>
+    <t>UID129</t>
+  </si>
+  <si>
+    <t>UID130</t>
+  </si>
+  <si>
+    <t>UID131</t>
+  </si>
+  <si>
+    <t>UID132</t>
+  </si>
+  <si>
+    <t>UID133</t>
   </si>
 </sst>
 </file>
@@ -783,7 +787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2990,4 +2996,2335 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAB8CEF-726C-4241-BFA1-6E1943DC3876}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>1.3261911706117391</v>
+      </c>
+      <c r="C2">
+        <v>1.3024329053469219</v>
+      </c>
+      <c r="D2">
+        <v>0.78607431925101023</v>
+      </c>
+      <c r="E2">
+        <v>0.75856512441130486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>1.730147732293164</v>
+      </c>
+      <c r="C3">
+        <v>1.702972215117363</v>
+      </c>
+      <c r="D3">
+        <v>1.938838417148931</v>
+      </c>
+      <c r="E3">
+        <v>1.890661110386302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>1.075159867526065</v>
+      </c>
+      <c r="C4">
+        <v>1.032662490158925</v>
+      </c>
+      <c r="D4">
+        <v>0.58499683018192583</v>
+      </c>
+      <c r="E4">
+        <v>0.49480297275811119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>1.473484947830056</v>
+      </c>
+      <c r="C5">
+        <v>1.452749629926348</v>
+      </c>
+      <c r="D5">
+        <v>0.96397960596130627</v>
+      </c>
+      <c r="E5">
+        <v>0.92639065649756769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>0.82555727497734255</v>
+      </c>
+      <c r="C6">
+        <v>0.81503159546723503</v>
+      </c>
+      <c r="D6">
+        <v>0.24970813497298139</v>
+      </c>
+      <c r="E6">
+        <v>0.27141121630435472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>1.177169382742181</v>
+      </c>
+      <c r="C7">
+        <v>1.1300818596784761</v>
+      </c>
+      <c r="D7">
+        <v>1.135495717908654</v>
+      </c>
+      <c r="E7">
+        <v>1.081190948681654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>1.105914748613616</v>
+      </c>
+      <c r="C8">
+        <v>1.1360850755510929</v>
+      </c>
+      <c r="D8">
+        <v>0.97882198862042735</v>
+      </c>
+      <c r="E8">
+        <v>0.93127954954174097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>1.216127633067237</v>
+      </c>
+      <c r="C9">
+        <v>1.241562845763581</v>
+      </c>
+      <c r="D9">
+        <v>0.91825996634747498</v>
+      </c>
+      <c r="E9">
+        <v>0.86173134827853015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10">
+        <v>1.1202717159589231</v>
+      </c>
+      <c r="C10">
+        <v>1.136056998532365</v>
+      </c>
+      <c r="D10">
+        <v>1.0473646747604159</v>
+      </c>
+      <c r="E10">
+        <v>1.1435646776415269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>0.90522798425645568</v>
+      </c>
+      <c r="C11">
+        <v>0.89004279449708545</v>
+      </c>
+      <c r="D11">
+        <v>-0.26386956359497832</v>
+      </c>
+      <c r="E11">
+        <v>-0.37157510905194913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12">
+        <v>1.2423330392993399</v>
+      </c>
+      <c r="C12">
+        <v>1.218764349442327</v>
+      </c>
+      <c r="D12">
+        <v>1.082295518422959</v>
+      </c>
+      <c r="E12">
+        <v>1.0404429317514541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>1.4146851790064709</v>
+      </c>
+      <c r="C13">
+        <v>1.4048418119889949</v>
+      </c>
+      <c r="D13">
+        <v>1.213575277519076</v>
+      </c>
+      <c r="E13">
+        <v>1.1614185391082441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>0.77759045850367448</v>
+      </c>
+      <c r="C14">
+        <v>0.79948588640432894</v>
+      </c>
+      <c r="D14">
+        <v>0.529304325225463</v>
+      </c>
+      <c r="E14">
+        <v>0.54781272356307431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>1.6303072742238891</v>
+      </c>
+      <c r="C15">
+        <v>1.5966553059705391</v>
+      </c>
+      <c r="D15">
+        <v>1.605719429739068</v>
+      </c>
+      <c r="E15">
+        <v>1.5469923862125881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16">
+        <v>0.76609103197945905</v>
+      </c>
+      <c r="C16">
+        <v>0.7527126379334389</v>
+      </c>
+      <c r="D16">
+        <v>0.83533082583606377</v>
+      </c>
+      <c r="E16">
+        <v>0.81688122441060185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17">
+        <v>0.84112411195021153</v>
+      </c>
+      <c r="C17">
+        <v>0.82448503112661176</v>
+      </c>
+      <c r="D17">
+        <v>-0.30078480855982292</v>
+      </c>
+      <c r="E17">
+        <v>-0.28619033705725172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18">
+        <v>0.98744703797014055</v>
+      </c>
+      <c r="C18">
+        <v>0.99994168610402878</v>
+      </c>
+      <c r="D18">
+        <v>-0.22502093818062741</v>
+      </c>
+      <c r="E18">
+        <v>-0.23589804277006349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19">
+        <v>1.20700794472883</v>
+      </c>
+      <c r="C19">
+        <v>1.1703690792218031</v>
+      </c>
+      <c r="D19">
+        <v>0.67409177601436077</v>
+      </c>
+      <c r="E19">
+        <v>0.64563497702824457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>1.371261769758735</v>
+      </c>
+      <c r="C20">
+        <v>1.3633729267373671</v>
+      </c>
+      <c r="D20">
+        <v>1.0645564144822359</v>
+      </c>
+      <c r="E20">
+        <v>0.9137843707592026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21">
+        <v>1.3567079757409859</v>
+      </c>
+      <c r="C21">
+        <v>1.3329992212219961</v>
+      </c>
+      <c r="D21">
+        <v>0.95134037647728853</v>
+      </c>
+      <c r="E21">
+        <v>0.95016625403503674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22">
+        <v>0.80312588861703016</v>
+      </c>
+      <c r="C22">
+        <v>0.77437770518273596</v>
+      </c>
+      <c r="D22">
+        <v>0.51593712608909281</v>
+      </c>
+      <c r="E22">
+        <v>0.50163744028264134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23">
+        <v>0.46377427175837987</v>
+      </c>
+      <c r="C23">
+        <v>0.48528168981131031</v>
+      </c>
+      <c r="D23">
+        <v>-0.15736727538415199</v>
+      </c>
+      <c r="E23">
+        <v>-5.1497195168083168E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24">
+        <v>0.96247447915078599</v>
+      </c>
+      <c r="C24">
+        <v>0.9022652778164163</v>
+      </c>
+      <c r="D24">
+        <v>0.79450989157150842</v>
+      </c>
+      <c r="E24">
+        <v>0.79757009306521431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>1.195021141627302</v>
+      </c>
+      <c r="C25">
+        <v>1.1633257032081961</v>
+      </c>
+      <c r="D25">
+        <v>0.63514021046163793</v>
+      </c>
+      <c r="E25">
+        <v>0.62770708898862604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26">
+        <v>1.362871143505451</v>
+      </c>
+      <c r="C26">
+        <v>1.3697113232053959</v>
+      </c>
+      <c r="D26">
+        <v>1.0727060767636361</v>
+      </c>
+      <c r="E26">
+        <v>1.0677059652583889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27">
+        <v>1.5565530177110249</v>
+      </c>
+      <c r="C27">
+        <v>1.5488033142576281</v>
+      </c>
+      <c r="D27">
+        <v>1.222245066313792</v>
+      </c>
+      <c r="E27">
+        <v>1.201906040037809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA310946-451D-4B01-A8F6-65FCBDD4E2D2}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>1.3923792673262441</v>
+      </c>
+      <c r="C2">
+        <v>1.3632963693423941</v>
+      </c>
+      <c r="D2">
+        <v>1.3522407904294851</v>
+      </c>
+      <c r="E2">
+        <v>1.3273737218136969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>1.08804858461625</v>
+      </c>
+      <c r="C3">
+        <v>1.0738313517241209</v>
+      </c>
+      <c r="D3">
+        <v>0.63560866437515395</v>
+      </c>
+      <c r="E3">
+        <v>0.61732773820241871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>1.3898148420693901</v>
+      </c>
+      <c r="C4">
+        <v>1.350135400257112</v>
+      </c>
+      <c r="D4">
+        <v>1.3263256764174829</v>
+      </c>
+      <c r="E4">
+        <v>1.322932458279624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>1.515438916528826</v>
+      </c>
+      <c r="C5">
+        <v>1.463871921087543</v>
+      </c>
+      <c r="D5">
+        <v>1.1340867108047279</v>
+      </c>
+      <c r="E5">
+        <v>1.1030814300539911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>0.84433202821416231</v>
+      </c>
+      <c r="C6">
+        <v>0.85647809975068201</v>
+      </c>
+      <c r="D6">
+        <v>0.41084900812645031</v>
+      </c>
+      <c r="E6">
+        <v>0.3579916082695363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>1.25467863147</v>
+      </c>
+      <c r="C7">
+        <v>1.242163528236965</v>
+      </c>
+      <c r="D7">
+        <v>0.81298266420468779</v>
+      </c>
+      <c r="E7">
+        <v>0.81697438787004084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>1.086881371596474</v>
+      </c>
+      <c r="C8">
+        <v>1.0559357907075719</v>
+      </c>
+      <c r="D8">
+        <v>0.8597249741773888</v>
+      </c>
+      <c r="E8">
+        <v>0.77781719830216101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>1.391681068899675</v>
+      </c>
+      <c r="C9">
+        <v>1.364640530463445</v>
+      </c>
+      <c r="D9">
+        <v>1.0516975903703689</v>
+      </c>
+      <c r="E9">
+        <v>1.0582521608079929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>0.72798723227470985</v>
+      </c>
+      <c r="C10">
+        <v>0.69153360883421044</v>
+      </c>
+      <c r="D10">
+        <v>-1.0191250013629281</v>
+      </c>
+      <c r="E10">
+        <v>-0.9706988459933501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>1.372206320824535</v>
+      </c>
+      <c r="C11">
+        <v>1.3586792864758921</v>
+      </c>
+      <c r="D11">
+        <v>1.057431774602412</v>
+      </c>
+      <c r="E11">
+        <v>0.99685993849628529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <v>1.025862898733324</v>
+      </c>
+      <c r="C12">
+        <v>1.009418482688506</v>
+      </c>
+      <c r="D12">
+        <v>0.9112744861300015</v>
+      </c>
+      <c r="E12">
+        <v>0.84266227580766029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>1.1876145485352121</v>
+      </c>
+      <c r="C13">
+        <v>1.2008286615036461</v>
+      </c>
+      <c r="D13">
+        <v>0.57611618875067472</v>
+      </c>
+      <c r="E13">
+        <v>0.61828922528218255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>1.050665851639186</v>
+      </c>
+      <c r="C14">
+        <v>1.037740348025098</v>
+      </c>
+      <c r="D14">
+        <v>0.77696490443896749</v>
+      </c>
+      <c r="E14">
+        <v>0.79505649974116654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <v>1.2718993856257279</v>
+      </c>
+      <c r="C15">
+        <v>1.2451405839838721</v>
+      </c>
+      <c r="D15">
+        <v>1.102801475553318</v>
+      </c>
+      <c r="E15">
+        <v>1.0233096255173879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <v>1.330213623056349</v>
+      </c>
+      <c r="C16">
+        <v>1.3429591443880939</v>
+      </c>
+      <c r="D16">
+        <v>0.53130128062828486</v>
+      </c>
+      <c r="E16">
+        <v>0.58065249687983045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <v>0.94630788023977819</v>
+      </c>
+      <c r="C17">
+        <v>0.95577702992739999</v>
+      </c>
+      <c r="D17">
+        <v>0.58604849909935286</v>
+      </c>
+      <c r="E17">
+        <v>0.59541426349854454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <v>0.69831385808310187</v>
+      </c>
+      <c r="C18">
+        <v>0.74000989427022357</v>
+      </c>
+      <c r="D18">
+        <v>0.11730830049599671</v>
+      </c>
+      <c r="E18">
+        <v>0.17135628141534309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>1.1043715393389011</v>
+      </c>
+      <c r="C19">
+        <v>1.137607310917004</v>
+      </c>
+      <c r="D19">
+        <v>0.89504184039639023</v>
+      </c>
+      <c r="E19">
+        <v>0.88108799561017792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <v>1.3217461694807069</v>
+      </c>
+      <c r="C20">
+        <v>1.3048568997476631</v>
+      </c>
+      <c r="D20">
+        <v>1.2333493004744089</v>
+      </c>
+      <c r="E20">
+        <v>1.148195684970317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <v>1.2279671315762519</v>
+      </c>
+      <c r="C21">
+        <v>1.2312330612274771</v>
+      </c>
+      <c r="D21">
+        <v>0.59993833283840614</v>
+      </c>
+      <c r="E21">
+        <v>0.55119345916819307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>1.061972756447088</v>
+      </c>
+      <c r="C22">
+        <v>1.060832604728275</v>
+      </c>
+      <c r="D22">
+        <v>0.96321654067289897</v>
+      </c>
+      <c r="E22">
+        <v>0.91014409847992095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <v>1.501290656260567</v>
+      </c>
+      <c r="C23">
+        <v>1.5150496045814279</v>
+      </c>
+      <c r="D23">
+        <v>0.80963355711372853</v>
+      </c>
+      <c r="E23">
+        <v>0.75248891040613664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <v>1.153157653757201</v>
+      </c>
+      <c r="C24">
+        <v>1.114990258844879</v>
+      </c>
+      <c r="D24">
+        <v>0.97558804296751211</v>
+      </c>
+      <c r="E24">
+        <v>0.91744738632708767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>0.76132259959848358</v>
+      </c>
+      <c r="C25">
+        <v>0.74012972294114121</v>
+      </c>
+      <c r="D25">
+        <v>0.1836946577563037</v>
+      </c>
+      <c r="E25">
+        <v>0.16868597569303101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26">
+        <v>1.2182053826779129</v>
+      </c>
+      <c r="C26">
+        <v>1.2186662670237169</v>
+      </c>
+      <c r="D26">
+        <v>1.3460644821636569</v>
+      </c>
+      <c r="E26">
+        <v>1.3737208484347521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <v>1.222917297764109</v>
+      </c>
+      <c r="C27">
+        <v>1.2235574422261071</v>
+      </c>
+      <c r="D27">
+        <v>0.82229686978364702</v>
+      </c>
+      <c r="E27">
+        <v>0.8200834822275257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>1.2371389375249779</v>
+      </c>
+      <c r="C28">
+        <v>1.233720969240742</v>
+      </c>
+      <c r="D28">
+        <v>0.91781391048853922</v>
+      </c>
+      <c r="E28">
+        <v>0.9274356183877539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>1.36697930208396</v>
+      </c>
+      <c r="C29">
+        <v>1.331074803140593</v>
+      </c>
+      <c r="D29">
+        <v>1.218068969219043</v>
+      </c>
+      <c r="E29">
+        <v>1.1924384954093299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <v>1.278887514927264</v>
+      </c>
+      <c r="C30">
+        <v>1.2475196781234761</v>
+      </c>
+      <c r="D30">
+        <v>1.002773223256199</v>
+      </c>
+      <c r="E30">
+        <v>0.96867354138740747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <v>1.239431115412877</v>
+      </c>
+      <c r="C31">
+        <v>1.229291277659551</v>
+      </c>
+      <c r="D31">
+        <v>0.78595335594833682</v>
+      </c>
+      <c r="E31">
+        <v>0.64468244216088977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <v>1.15104873155696</v>
+      </c>
+      <c r="C32">
+        <v>1.137242633717944</v>
+      </c>
+      <c r="D32">
+        <v>1.1887414520030259</v>
+      </c>
+      <c r="E32">
+        <v>1.2002866360874169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <v>1.0555922005960729</v>
+      </c>
+      <c r="C33">
+        <v>1.09910066336643</v>
+      </c>
+      <c r="D33">
+        <v>0.24690355597839039</v>
+      </c>
+      <c r="E33">
+        <v>0.28172824210220659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>1.142348157399419</v>
+      </c>
+      <c r="C34">
+        <v>1.1209083625712599</v>
+      </c>
+      <c r="D34">
+        <v>1.0241110836066381</v>
+      </c>
+      <c r="E34">
+        <v>0.98769372058193128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>1.4021027935360919</v>
+      </c>
+      <c r="C35">
+        <v>1.406754374313834</v>
+      </c>
+      <c r="D35">
+        <v>0.8061709737184326</v>
+      </c>
+      <c r="E35">
+        <v>0.76670401650946252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BFCE95-1CE1-49D8-B5E2-892B570A8F54}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1.02984147448218</v>
+      </c>
+      <c r="C2">
+        <v>0.99666719977257123</v>
+      </c>
+      <c r="D2">
+        <v>0.1127971605865741</v>
+      </c>
+      <c r="E2">
+        <v>-1.098486419445434E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1.3041895169326081</v>
+      </c>
+      <c r="C3">
+        <v>1.289575997596814</v>
+      </c>
+      <c r="D3">
+        <v>0.78538572704242515</v>
+      </c>
+      <c r="E3">
+        <v>0.78471689126206234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0.86278248534706425</v>
+      </c>
+      <c r="C4">
+        <v>0.88192221367764712</v>
+      </c>
+      <c r="D4">
+        <v>9.2926009909010121E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.2895010030144247E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0.67866264440152979</v>
+      </c>
+      <c r="C5">
+        <v>0.71487986076735621</v>
+      </c>
+      <c r="D5">
+        <v>0.22371882930384199</v>
+      </c>
+      <c r="E5">
+        <v>0.2048229029960161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.81703672955311157</v>
+      </c>
+      <c r="C6">
+        <v>0.80790690031730861</v>
+      </c>
+      <c r="D6">
+        <v>-0.32220191977117651</v>
+      </c>
+      <c r="E6">
+        <v>-0.33351316827465211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>1.3126006320946759</v>
+      </c>
+      <c r="C7">
+        <v>1.2590190500986991</v>
+      </c>
+      <c r="D7">
+        <v>1.4128699364697359</v>
+      </c>
+      <c r="E7">
+        <v>1.371713883559829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>0.86971318691554578</v>
+      </c>
+      <c r="C8">
+        <v>0.87690904975031125</v>
+      </c>
+      <c r="D8">
+        <v>5.5780290931157397E-2</v>
+      </c>
+      <c r="E8">
+        <v>5.5043193906054992E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0.6348504332496987</v>
+      </c>
+      <c r="C9">
+        <v>0.64763851275955486</v>
+      </c>
+      <c r="D9">
+        <v>-0.33236942262821639</v>
+      </c>
+      <c r="E9">
+        <v>-0.29112011504653651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>1.070788857484402</v>
+      </c>
+      <c r="C10">
+        <v>1.036888958075679</v>
+      </c>
+      <c r="D10">
+        <v>1.1596691199240019</v>
+      </c>
+      <c r="E10">
+        <v>1.0881700743366209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>1.1330082192082569</v>
+      </c>
+      <c r="C11">
+        <v>1.155416108710605</v>
+      </c>
+      <c r="D11">
+        <v>0.8366844816001362</v>
+      </c>
+      <c r="E11">
+        <v>0.84364398765861714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>1.0726009956476359</v>
+      </c>
+      <c r="C12">
+        <v>1.0597875799812759</v>
+      </c>
+      <c r="D12">
+        <v>0.56678872819554527</v>
+      </c>
+      <c r="E12">
+        <v>0.50756401014220365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>0.99152833324272904</v>
+      </c>
+      <c r="C13">
+        <v>0.97240008697891278</v>
+      </c>
+      <c r="D13">
+        <v>-6.6360768774165718E-2</v>
+      </c>
+      <c r="E13">
+        <v>-9.1006716643242752E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>1.079454705893433</v>
+      </c>
+      <c r="C14">
+        <v>1.11665115357566</v>
+      </c>
+      <c r="D14">
+        <v>0.67571458916749039</v>
+      </c>
+      <c r="E14">
+        <v>0.67371386408794021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>1.2251202400135941</v>
+      </c>
+      <c r="C15">
+        <v>1.2669013042267541</v>
+      </c>
+      <c r="D15">
+        <v>1.14368051570924</v>
+      </c>
+      <c r="E15">
+        <v>1.1221710139452461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>1.3602084637196501</v>
+      </c>
+      <c r="C16">
+        <v>1.366196904584728</v>
+      </c>
+      <c r="D16">
+        <v>0.79636327765993853</v>
+      </c>
+      <c r="E16">
+        <v>0.74466250681755342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>1.0253223134373071</v>
+      </c>
+      <c r="C17">
+        <v>1.043322105682142</v>
+      </c>
+      <c r="D17">
+        <v>0.19839524782494661</v>
+      </c>
+      <c r="E17">
+        <v>0.1968578129419099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>1.4315772673225511</v>
+      </c>
+      <c r="C18">
+        <v>1.4164414338160529</v>
+      </c>
+      <c r="D18">
+        <v>1.2298771237954631</v>
+      </c>
+      <c r="E18">
+        <v>1.176994213615149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>0.94257286630403603</v>
+      </c>
+      <c r="C19">
+        <v>0.90383303699211126</v>
+      </c>
+      <c r="D19">
+        <v>0.25961313225248922</v>
+      </c>
+      <c r="E19">
+        <v>0.23218348404023209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>1.4973718194271031</v>
+      </c>
+      <c r="C20">
+        <v>1.4300987485452581</v>
+      </c>
+      <c r="D20">
+        <v>1.583534785654499</v>
+      </c>
+      <c r="E20">
+        <v>1.489340458970162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>1.325627300640942</v>
+      </c>
+      <c r="C21">
+        <v>1.3466118215694109</v>
+      </c>
+      <c r="D21">
+        <v>1.2651552525706471</v>
+      </c>
+      <c r="E21">
+        <v>1.2602330826104491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>1.4511276570474021</v>
+      </c>
+      <c r="C22">
+        <v>1.413688588365422</v>
+      </c>
+      <c r="D22">
+        <v>0.86013792492074892</v>
+      </c>
+      <c r="E22">
+        <v>0.80882110446055666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>1.073679053987219</v>
+      </c>
+      <c r="C23">
+        <v>1.101829010376624</v>
+      </c>
+      <c r="D23">
+        <v>0.43012465756648588</v>
+      </c>
+      <c r="E23">
+        <v>0.51093463893606528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>1.2576338123088611</v>
+      </c>
+      <c r="C24">
+        <v>1.2636574227408419</v>
+      </c>
+      <c r="D24">
+        <v>0.46999650326561571</v>
+      </c>
+      <c r="E24">
+        <v>0.41160451336632792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>0.98970785075991219</v>
+      </c>
+      <c r="C25">
+        <v>0.98373181081062222</v>
+      </c>
+      <c r="D25">
+        <v>0.1025985785006809</v>
+      </c>
+      <c r="E25">
+        <v>-4.9780480312755768E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>0.89819769320323417</v>
+      </c>
+      <c r="C26">
+        <v>0.87009686290030741</v>
+      </c>
+      <c r="D26">
+        <v>-0.36330117969609038</v>
+      </c>
+      <c r="E26">
+        <v>-0.34353276242314301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>0.62917558501469584</v>
+      </c>
+      <c r="C27">
+        <v>0.64849227481110827</v>
+      </c>
+      <c r="D27">
+        <v>-0.88117586776488255</v>
+      </c>
+      <c r="E27">
+        <v>-0.72174334197554113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>1.3189018925310341</v>
+      </c>
+      <c r="C28">
+        <v>1.2891707484871431</v>
+      </c>
+      <c r="D28">
+        <v>0.62177698958057692</v>
+      </c>
+      <c r="E28">
+        <v>0.58380388609374023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>1.187372427513842</v>
+      </c>
+      <c r="C29">
+        <v>1.1897682795282689</v>
+      </c>
+      <c r="D29">
+        <v>0.50013667782379989</v>
+      </c>
+      <c r="E29">
+        <v>0.46110213814294099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>1.0372356777752949</v>
+      </c>
+      <c r="C30">
+        <v>0.98969840925154584</v>
+      </c>
+      <c r="D30">
+        <v>0.70258231747733735</v>
+      </c>
+      <c r="E30">
+        <v>0.6126013576292525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>1.1530342378027061</v>
+      </c>
+      <c r="C31">
+        <v>1.163476073902544</v>
+      </c>
+      <c r="D31">
+        <v>0.40653551446561509</v>
+      </c>
+      <c r="E31">
+        <v>0.39947728920146042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>0.89473667418258995</v>
+      </c>
+      <c r="C32">
+        <v>0.83024172129746698</v>
+      </c>
+      <c r="D32">
+        <v>0.44616483674286711</v>
+      </c>
+      <c r="E32">
+        <v>0.4829249452538773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>1.071594241489084</v>
+      </c>
+      <c r="C33">
+        <v>1.09248494747786</v>
+      </c>
+      <c r="D33">
+        <v>0.69092133888366503</v>
+      </c>
+      <c r="E33">
+        <v>0.66522550563975724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>1.067855836543361</v>
+      </c>
+      <c r="C34">
+        <v>1.05882763044265</v>
+      </c>
+      <c r="D34">
+        <v>0.57762099377468257</v>
+      </c>
+      <c r="E34">
+        <v>0.58400715462219988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>1.405235559699763</v>
+      </c>
+      <c r="C35">
+        <v>1.4098827616917811</v>
+      </c>
+      <c r="D35">
+        <v>1.5546413749565979</v>
+      </c>
+      <c r="E35">
+        <v>1.4811049649396939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>1.459068462074764</v>
+      </c>
+      <c r="C36">
+        <v>1.440906250893319</v>
+      </c>
+      <c r="D36">
+        <v>1.020892457920529</v>
+      </c>
+      <c r="E36">
+        <v>1.035606724722224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>0.76124714759921408</v>
+      </c>
+      <c r="C37">
+        <v>0.77246042381977176</v>
+      </c>
+      <c r="D37">
+        <v>0.41270793368393111</v>
+      </c>
+      <c r="E37">
+        <v>0.36813689914918252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>1.184934592744644</v>
+      </c>
+      <c r="C38">
+        <v>1.1607001702721711</v>
+      </c>
+      <c r="D38">
+        <v>0.67769449096507839</v>
+      </c>
+      <c r="E38">
+        <v>0.64492574745625642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1598CECD-FD01-4614-9967-A620807CEB58}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.86454497776451367</v>
+      </c>
+      <c r="C2">
+        <v>0.87680082590011899</v>
+      </c>
+      <c r="D2">
+        <v>0.29450255006384479</v>
+      </c>
+      <c r="E2">
+        <v>0.29943354953930201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.407855562813412</v>
+      </c>
+      <c r="C3">
+        <v>1.3572249631952591</v>
+      </c>
+      <c r="D3">
+        <v>1.085803872668722</v>
+      </c>
+      <c r="E3">
+        <v>1.0824330009884851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.050614543275771</v>
+      </c>
+      <c r="C4">
+        <v>1.0629109974731039</v>
+      </c>
+      <c r="D4">
+        <v>3.4235858441031192E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.7508334338214423E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1.284945555726918</v>
+      </c>
+      <c r="C5">
+        <v>1.250087413569946</v>
+      </c>
+      <c r="D5">
+        <v>1.2316451811921061</v>
+      </c>
+      <c r="E5">
+        <v>1.1836709239518011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1.01986517125884</v>
+      </c>
+      <c r="C6">
+        <v>0.95954403680511025</v>
+      </c>
+      <c r="D6">
+        <v>0.77700230346153276</v>
+      </c>
+      <c r="E6">
+        <v>0.70732056745111715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.1881125090681091</v>
+      </c>
+      <c r="C7">
+        <v>1.24532487482817</v>
+      </c>
+      <c r="D7">
+        <v>0.82400068231888979</v>
+      </c>
+      <c r="E7">
+        <v>0.85677310683597574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.90737674292513604</v>
+      </c>
+      <c r="C8">
+        <v>0.90943858884759976</v>
+      </c>
+      <c r="D8">
+        <v>0.49767632698530651</v>
+      </c>
+      <c r="E8">
+        <v>0.48445471302938781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.235754257645417</v>
+      </c>
+      <c r="C9">
+        <v>1.2212180510984281</v>
+      </c>
+      <c r="D9">
+        <v>1.0306868623745049</v>
+      </c>
+      <c r="E9">
+        <v>0.95365939754156248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.137100502301605</v>
+      </c>
+      <c r="C10">
+        <v>1.081095716465359</v>
+      </c>
+      <c r="D10">
+        <v>0.46818164532522621</v>
+      </c>
+      <c r="E10">
+        <v>0.42875515812770859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1.427042516428817</v>
+      </c>
+      <c r="C11">
+        <v>1.3912356199428091</v>
+      </c>
+      <c r="D11">
+        <v>1.012429061860415</v>
+      </c>
+      <c r="E11">
+        <v>0.9703688914791827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.9194095977655925</v>
+      </c>
+      <c r="C12">
+        <v>0.89512544153833318</v>
+      </c>
+      <c r="D12">
+        <v>0.54438374657498112</v>
+      </c>
+      <c r="E12">
+        <v>0.49565875318985031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1.1810293059067649</v>
+      </c>
+      <c r="C13">
+        <v>1.1590321282810769</v>
+      </c>
+      <c r="D13">
+        <v>0.57346969782654011</v>
+      </c>
+      <c r="E13">
+        <v>0.60059409452700063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1.189677611484095</v>
+      </c>
+      <c r="C14">
+        <v>1.1429585670111031</v>
+      </c>
+      <c r="D14">
+        <v>0.92529461146722602</v>
+      </c>
+      <c r="E14">
+        <v>0.87691575873737182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.81124281297072942</v>
+      </c>
+      <c r="C15">
+        <v>0.80032211518992369</v>
+      </c>
+      <c r="D15">
+        <v>0.19181416343812391</v>
+      </c>
+      <c r="E15">
+        <v>0.1190937065888807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1.091242540455138</v>
+      </c>
+      <c r="C16">
+        <v>1.034926377719849</v>
+      </c>
+      <c r="D16">
+        <v>-2.4840607971828719E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.9217462050601802E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1.541265584745025</v>
+      </c>
+      <c r="C17">
+        <v>1.523261437351793</v>
+      </c>
+      <c r="D17">
+        <v>1.199403456982252</v>
+      </c>
+      <c r="E17">
+        <v>1.155278316257969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.37924060995213821</v>
+      </c>
+      <c r="C18">
+        <v>0.39183682143479331</v>
+      </c>
+      <c r="D18">
+        <v>-0.39753722832127258</v>
+      </c>
+      <c r="E18">
+        <v>-0.4452707683730312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>1.3755478189440189</v>
+      </c>
+      <c r="C19">
+        <v>1.337182027097489</v>
+      </c>
+      <c r="D19">
+        <v>1.0884094007952321</v>
+      </c>
+      <c r="E19">
+        <v>0.99442068741165102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>1.020396662309734</v>
+      </c>
+      <c r="C20">
+        <v>1.020176736357457</v>
+      </c>
+      <c r="D20">
+        <v>0.92099948670602783</v>
+      </c>
+      <c r="E20">
+        <v>0.98134474020183249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.83861954389404492</v>
+      </c>
+      <c r="C21">
+        <v>0.85423626693081234</v>
+      </c>
+      <c r="D21">
+        <v>0.68476657265017926</v>
+      </c>
+      <c r="E21">
+        <v>0.75255100087175819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.88333892871783526</v>
+      </c>
+      <c r="C22">
+        <v>0.93123516994859512</v>
+      </c>
+      <c r="D22">
+        <v>0.79096805172037898</v>
+      </c>
+      <c r="E22">
+        <v>0.78074854405725014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.87364291508240444</v>
+      </c>
+      <c r="C23">
+        <v>0.82187746582107779</v>
+      </c>
+      <c r="D23">
+        <v>0.37470545711996123</v>
+      </c>
+      <c r="E23">
+        <v>0.3844231136180114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0.8134060347981521</v>
+      </c>
+      <c r="C24">
+        <v>0.78021535715171852</v>
+      </c>
+      <c r="D24">
+        <v>0.19039419363074089</v>
+      </c>
+      <c r="E24">
+        <v>0.1502301491056395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.92836949479915731</v>
+      </c>
+      <c r="C25">
+        <v>0.96891378750780799</v>
+      </c>
+      <c r="D25">
+        <v>0.2161305425696185</v>
+      </c>
+      <c r="E25">
+        <v>0.1932994207773974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>1.072649825900253</v>
+      </c>
+      <c r="C26">
+        <v>1.0436674255504921</v>
+      </c>
+      <c r="D26">
+        <v>0.66109591442489046</v>
+      </c>
+      <c r="E26">
+        <v>0.66615344765764595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1.093313267621286</v>
+      </c>
+      <c r="C27">
+        <v>1.090889217762234</v>
+      </c>
+      <c r="D27">
+        <v>0.64403685310821435</v>
+      </c>
+      <c r="E27">
+        <v>0.59562562331634472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>1.0162977630142329</v>
+      </c>
+      <c r="C28">
+        <v>1.026842314812995</v>
+      </c>
+      <c r="D28">
+        <v>0.3854180145955462</v>
+      </c>
+      <c r="E28">
+        <v>0.36895933626677191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1.3629008692379421</v>
+      </c>
+      <c r="C29">
+        <v>1.321047281133775</v>
+      </c>
+      <c r="D29">
+        <v>1.035710733745808</v>
+      </c>
+      <c r="E29">
+        <v>1.0115296542138881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1.670492210668582</v>
+      </c>
+      <c r="C30">
+        <v>1.6327194350751739</v>
+      </c>
+      <c r="D30">
+        <v>1.7145927627208251</v>
+      </c>
+      <c r="E30">
+        <v>1.6512663451617311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>0.783540346731185</v>
+      </c>
+      <c r="C31">
+        <v>0.84210115892668536</v>
+      </c>
+      <c r="D31">
+        <v>-8.6255361487419607E-2</v>
+      </c>
+      <c r="E31">
+        <v>-4.8099582492039843E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>1.463569066606089</v>
+      </c>
+      <c r="C32">
+        <v>1.4555327847725781</v>
+      </c>
+      <c r="D32">
+        <v>0.9491670479880131</v>
+      </c>
+      <c r="E32">
+        <v>0.90874074969619456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>